--- a/biology/Botanique/Frau_Oberhofgärtner_Singer/Frau_Oberhofgärtner_Singer.xlsx
+++ b/biology/Botanique/Frau_Oberhofgärtner_Singer/Frau_Oberhofgärtner_Singer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Frau_Oberhofg%C3%A4rtner_Singer</t>
+          <t>Frau_Oberhofgärtner_Singer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Frau Oberhofgärtner Singer' est un cultivar de rosier hybride de thé obtenu en 1908 par le rosiériste allemand Peter Lambert, à Trèves-sur-Moselle. Il est issu de 'Jules Margottin' (Margottin 1853) x 'Madame Eugénie Boullet' (Pernet-Ducher 1897). Il doit son nom à l'épouse du jardinier en chef de la Cour du royaume de Bavière, Arthur Andreas Singer[1].
+'Frau Oberhofgärtner Singer' est un cultivar de rosier hybride de thé obtenu en 1908 par le rosiériste allemand Peter Lambert, à Trèves-sur-Moselle. Il est issu de 'Jules Margottin' (Margottin 1853) x 'Madame Eugénie Boullet' (Pernet-Ducher 1897). Il doit son nom à l'épouse du jardinier en chef de la Cour du royaume de Bavière, Arthur Andreas Singer.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Frau_Oberhofg%C3%A4rtner_Singer</t>
+          <t>Frau_Oberhofgärtner_Singer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un buisson vigoureux et bien ramifié aux grandes fleurs très doubles et odorantes, et d'un beau coloris rose frais tendre[2], aux bords nuancés de blanc[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un buisson vigoureux et bien ramifié aux grandes fleurs très doubles et odorantes, et d'un beau coloris rose frais tendre, aux bords nuancés de blanc.
 Ce cultivar a donné naissance à 'Adam Messerich' (Lambert 1920).
 Cette variété peut être admirée à l'Europa-Rosarium de Sangerhausen. Elle n'est plus que rarement cultivée aujourd'hui.
 </t>
